--- a/biology/Écologie/Paramo_(biotope)/Paramo_(biotope).xlsx
+++ b/biology/Écologie/Paramo_(biotope)/Paramo_(biotope).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le paramo (de l'espagnol páramo : plateau, lande) est un biotope néotropical d'altitude, qu'on trouve dans la cordillère des Andes, entre la limite des forêts et les neiges éternelles.
 </t>
@@ -511,11 +523,13 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des paramos se situent dans la partie supérieure du nord de la cordillère des Andes, à peu près entre 11° de latitude nord et 4,5° de latitude sud. Ils forment une ceinture discontinue entre la cordillère de Mérida au Venezuela et la dépression de Huancabamba dans le nord du Pérou. Trois zones supplémentaires existent, l'une dans la Sierra de los Cuchumatanes au Guatemala, une autre dans la cordillère de Talamanca du Costa Rica et du Panama, et un autre dans la Sierra Nevada de Santa Marta en Colombie. Le plus grand paramo du monde est Sumapaz. Il est situé en Colombie à environ 30 km de Bogota et fait partie du district de la capitale.
 Un des meilleurs exemples de paramo relativement peu perturbé peut être trouvé à la Station biologique de Guandera dans le nord de l’Équateur.
-La superficie totale couverte par des paramos est estimée entre 35 000 et 77 000 km2. Cet écart est principalement dû aux incertitudes quant à la limite inférieure du paramo. La ligne de forêt naturelle est gravement altérée par l'activité humaine (exploitation forestière, brûlage répété, pâturage intensif), ce qui rend la différence entre les prairies naturelles et artificielles difficile à distinguer. Le subparamo est grandement influencé par l'homme, probablement en raison de la coupe et du brûlage étendu à l'extrémité supérieure de la limite des arbres, et peut être une anthropisation de la forêt montagnarde supérieure dégradée[1].
+La superficie totale couverte par des paramos est estimée entre 35 000 et 77 000 km2. Cet écart est principalement dû aux incertitudes quant à la limite inférieure du paramo. La ligne de forêt naturelle est gravement altérée par l'activité humaine (exploitation forestière, brûlage répété, pâturage intensif), ce qui rend la différence entre les prairies naturelles et artificielles difficile à distinguer. Le subparamo est grandement influencé par l'homme, probablement en raison de la coupe et du brûlage étendu à l'extrémité supérieure de la limite des arbres, et peut être une anthropisation de la forêt montagnarde supérieure dégradée.
 Des prairies alpines tropicales similaires au paramo sont abondamment présentes dans d'autres continents, telles que la ceinture afroalpine, qui s'étend de l'Éthiopie et de l'Ouganda au Kenya, la Tanzanie et l'Afrique du Sud. On en rencontre dans une moindre mesure en Nouvelle-Guinée et en Indonésie.
 </t>
         </is>
@@ -545,12 +559,14 @@
           <t>Végétation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'isolement et la fragmentation du paramo sur les hauts plateaux andins favorise une haute spéciation et un endémisme exceptionnellement élevé. L'écosystème abrite environ 5 000 espèces de plantes différentes. Environ 60 % de ces espèces sont endémiques, adaptées aux conditions physico-chimiques et climatiques spécifiques, telles que la faible pression atmosphérique, l'intense rayonnement ultra-violet et les effets desséchants du vent. La végétation se compose principalement de touffes d'herbes, de rosettes, d'arbustes nains et de plantes en coussinet et de rosettes géantes remarquables telles que Espeletia et Puya.
-Dans certaines régions, un gradient altitudinal de la végétation est clairement présent. Dans le subparamo, à 2 500–3 100 m d'altitude, des mosaïques d'arbustes et de petits arbres alternent avec les prairies. De vastes forêts de nuages peuvent se développer à certains endroits, constituées de petits arbres tordus et noueux avec de petites feuilles épaisses notophylles[2], et de nombreuses épiphytes.
+Dans certaines régions, un gradient altitudinal de la végétation est clairement présent. Dans le subparamo, à 2 500–3 100 m d'altitude, des mosaïques d'arbustes et de petits arbres alternent avec les prairies. De vastes forêts de nuages peuvent se développer à certains endroits, constituées de petits arbres tordus et noueux avec de petites feuilles épaisses notophylles, et de nombreuses épiphytes.
 Dans le paramo proprement dit (3 100–4 100 m), les prairies dominent et des zones avec des espèces ligneuses telles que Polylepis et Gynoxys n'existent que dans des endroits abrités et le long de cours d'eau.
-Le superparamo est une zone étroite à la végétation rare comprise entre le paramo herbeux et la ligne des neiges. Dans tous les ceintures de végétation, des types de végétation azonales (tourbières, marais, végétation aquatique) existent sur terrain plat et perhumide[3].
+Le superparamo est une zone étroite à la végétation rare comprise entre le paramo herbeux et la ligne des neiges. Dans tous les ceintures de végétation, des types de végétation azonales (tourbières, marais, végétation aquatique) existent sur terrain plat et perhumide.
 Principales familles
 Les familles de plantes les plus importantes sont les Asteraceae (y compris les frailejones), les Orchidaceae et les Poaceae ou graminées. L'espèce peut-être la plus largement distribuée, l'herbe Calamagrostis intermedia, appartient à cette dernière famille.
 D'autres familles importantes sont les Apiaceae, Blechnaceae, Brassicaceae, Bromeliaceae, Campanulaceae, Cyperaceae, Dicranaceae, Dryopteridaceae, Ericaceae, Eriocaulaceae, Escrofulariaceae, Gentianaceae, Haloragaceae, Hypericaceae, Juncaceae, Lentibulariaceae, Lycopodiaceae, Lobeliaceae, Loganiaceae, Melastomataceae, Onagraceae, Plantaginaceae, Rosaceae, Rubiaceae, Solanaceae, Violaceae et les Valerianaceae.
@@ -589,11 +605,13 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les animaux présentent eux aussi d'importantes adaptations majeures pour garder leur chaleur comme des couches épaisses et des couleurs foncées. Les adaptations éthologiques sont également fréquentes.
 Les animaux propres (pas nécessairement exclusivement) au paramo sont les ours à lunettes (Tremarctos ornatus), le loup ou le renard du paramo (Pseudalopex culpaeus), le lapin (Sylvilagus brasiliensis), le chat du paramo (Felis colocolo), le cerf à queue blanche (Odocoileus virginianus), plusieurs espèces de rongeurs, le Condor des Andes (Vultur gryphus) et plusieurs espèces d'aigles, les mouettes, les canards, les hiboux et les colibris.
-La grenouille appelée jambato negro en Équateur (Atelopus ignescens) était autrefois abondante. Considérée comme éteinte depuis 1988, elle a été redécouverte en 2016[4]. Le genre de lézards Stenocercus est l'un des rares représentants des reptiles. La faune aquatique est très diversifiée et comprend des poissons-chats (Astroblepus). La faune des invertébrés est mal connue.
+La grenouille appelée jambato negro en Équateur (Atelopus ignescens) était autrefois abondante. Considérée comme éteinte depuis 1988, elle a été redécouverte en 2016. Le genre de lézards Stenocercus est l'un des rares représentants des reptiles. La faune aquatique est très diversifiée et comprend des poissons-chats (Astroblepus). La faune des invertébrés est mal connue.
 </t>
         </is>
       </c>
@@ -622,13 +640,15 @@
           <t>Écorégions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le Fonds mondial pour la nature a identifié cinq écorégions de paramo distinctes :
-Paramo de la Cordillère centrale (sud Équateur et le nord du Pérou)[5].
-Paramo de la Cordillère de Mérida (Venezuela)[6].
-Paramo des Andes septentrionales (Colombie, Équateur)[7], qui comprend le Paramo Sumapaz (Colombie)[8].
-Paramo du Santa Marta Páramo (Colombie)[9].
+Paramo de la Cordillère centrale (sud Équateur et le nord du Pérou).
+Paramo de la Cordillère de Mérida (Venezuela).
+Paramo des Andes septentrionales (Colombie, Équateur), qui comprend le Paramo Sumapaz (Colombie).
+Paramo du Santa Marta Páramo (Colombie).
 Paramo du Costa Rica ou páramo Talamanca (Costa Rica, Panama).</t>
         </is>
       </c>
@@ -657,7 +677,9 @@
           <t>Intérêt socio-économique et perspectives</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré l'éloignement et le climat froid et humide, l'activité humaine dans le paramo n'est pas rare. La présence humaine dans les Hautes Andes date de l'époque préhistorique, mais se limite principalement au pâturage extensif du bétail laissé en liberté.
 Les habitants ont utilisé l'écosystème pour l'eau, la nourriture, la médecine, le bois de chauffage, les matériaux de construction, etc. Plusieurs tubercules andins ou des légumes-racines comme l'ulluque (Ullucus tuberosus), l'oca du Pérou (Oxalis tuberosa) et la capucine tubéreuse (Tropaeolum tuberosum) sont typiques de la partie supérieure de la cordillère des Andes.
